--- a/django_data.xlsx
+++ b/django_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>表单字段</t>
   </si>
@@ -35,24 +35,45 @@
     <t>说明</t>
   </si>
   <si>
+    <t>模块名称</t>
+  </si>
+  <si>
     <t>CharField</t>
   </si>
   <si>
     <t>字符类型字段</t>
   </si>
   <si>
+    <t>Django.contrib.auth.models.User</t>
+  </si>
+  <si>
+    <t>Auth模块中的用户模型</t>
+  </si>
+  <si>
     <t>InterField</t>
   </si>
   <si>
     <t>整数数值类型字段</t>
   </si>
   <si>
+    <t>Django.contrib.auth.models.Group</t>
+  </si>
+  <si>
+    <t>Auth模块中的用户组模型</t>
+  </si>
+  <si>
     <t>FloatField</t>
   </si>
   <si>
     <t>浮点数值类型字段</t>
   </si>
   <si>
+    <t>Django.contrib.auth.models.Permission</t>
+  </si>
+  <si>
+    <t>Auth模块中的权限模型</t>
+  </si>
+  <si>
     <t>DecimalField</t>
   </si>
   <si>
@@ -71,51 +92,135 @@
     <t>文件属性字段，默认在界面上显示一个文件或标签</t>
   </si>
   <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
     <t>BooleanField</t>
   </si>
   <si>
     <t>布尔类型字段，默认在界面上显示一个复选框标签</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>数据库主键</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>DateField</t>
   </si>
   <si>
     <t>日期类型字段，默认显示一个文本输入标签，可以自动验证日期格式</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>DateTimeField</t>
   </si>
   <si>
     <t>时间类型字段</t>
   </si>
   <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>最近登录的时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>EmailField</t>
   </si>
   <si>
     <t>邮件类型字段</t>
   </si>
   <si>
+    <t>is_superuser</t>
+  </si>
+  <si>
+    <t>是否为超级管理员</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
     <t>URLField</t>
   </si>
   <si>
     <t>URL地址类型字段</t>
   </si>
   <si>
+    <t>uesrname</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
     <t>ModelChoiceField</t>
   </si>
   <si>
     <t>使用该字段，可以直接从数据库中获取数据生成下拉列表组件</t>
   </si>
   <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>用户名字</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>用户姓氏</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>is_staff</t>
+  </si>
+  <si>
+    <t>是否登录admin后台</t>
+  </si>
+  <si>
     <t>字段参数</t>
   </si>
   <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>用户状态是否激活</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
     <t>生成HTML中的label标签</t>
   </si>
   <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>账号的创建时间</t>
+  </si>
+  <si>
     <t>label_suffix</t>
   </si>
   <si>
@@ -164,43 +269,88 @@
     <t>指定字段的HTML标签样式</t>
   </si>
   <si>
+    <t>方法</t>
+  </si>
+  <si>
     <t>PasswordInput</t>
   </si>
   <si>
     <t>密码输入标签</t>
   </si>
   <si>
+    <t>authenticate(username,password)</t>
+  </si>
+  <si>
+    <t>用户验证功能，如果认证成功，则返回一个User对象</t>
+  </si>
+  <si>
     <t>HiddenInput</t>
   </si>
   <si>
     <t>隐藏输入标签</t>
   </si>
   <si>
+    <t>login(HttpRequest,user)</t>
+  </si>
+  <si>
+    <t>用户登录功能</t>
+  </si>
+  <si>
     <t>Textarea</t>
   </si>
   <si>
     <t>文本域标签</t>
   </si>
   <si>
+    <t>is_authenticate()</t>
+  </si>
+  <si>
+    <t>判断当前用户是否经过认证</t>
+  </si>
+  <si>
     <t>CheckboxInput</t>
   </si>
   <si>
     <t>复选框标签</t>
   </si>
   <si>
+    <t>logout(request)</t>
+  </si>
+  <si>
+    <t>消除点前请求，注销会话</t>
+  </si>
+  <si>
     <t>FileInput</t>
   </si>
   <si>
     <t>文件域标签</t>
   </si>
   <si>
+    <t>create_user()</t>
+  </si>
+  <si>
+    <t>创建新用户，至少提供用户名和密码</t>
+  </si>
+  <si>
     <t>RadioSelect</t>
   </si>
   <si>
     <t>单选按钮标签</t>
   </si>
   <si>
+    <t>set_password(password)</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
     <t>隐藏域标签</t>
+  </si>
+  <si>
+    <t>checkpassword(password)</t>
+  </si>
+  <si>
+    <t>检查密码是否正确</t>
   </si>
   <si>
     <t>DateTimeInput</t>
@@ -923,18 +1073,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1464,384 +1635,573 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="47.875" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="6" ht="27" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
+      <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>42</v>
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>57</v>
+      <c r="E30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>61</v>
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>63</v>
+      <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>66</v>
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>68</v>
+      <c r="A46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" ht="105" customHeight="1" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" ht="40" customHeight="1" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" ht="57" customHeight="1" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" ht="52" customHeight="1" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:2">
+      <c r="A57" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" ht="105" customHeight="1" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" ht="40" customHeight="1" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" ht="57" customHeight="1" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" ht="52" customHeight="1" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" ht="23" customHeight="1" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" ht="20" customHeight="1" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>85</v>
+      <c r="B57" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
